--- a/biology/Médecine/Muscle_court_palmaire/Muscle_court_palmaire.xlsx
+++ b/biology/Médecine/Muscle_court_palmaire/Muscle_court_palmaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle court palmaire (ou muscle palmaire cutané dans l'ancienne nomenclature) est un muscle peaucier quadrilatère intrinsèque de la main. C'est le muscle le plus superficiel des muscles de l'éminence hypothénar.
 </t>
@@ -511,7 +523,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle court palmaire se fixe sur le bord médial de l'aponévrose palmaire.
 </t>
@@ -542,7 +556,9 @@
           <t>Trajet</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle court palmaire est transversal à la paume de la main.
 </t>
@@ -573,7 +589,9 @@
           <t>Terminaison</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle court palmaire se termine dans le derme profond de la peau du côté ulnaire de la paume.
 </t>
@@ -604,7 +622,9 @@
           <t>Innervation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle court palmaire est innervé par le rameau superficiel du nerf ulnaire.
 </t>
@@ -635,7 +655,9 @@
           <t>Action</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle court palmaire fronce les téguments de la partie médiale de la paume de la main.
 </t>
